--- a/src/test/resources/login.xlsx
+++ b/src/test/resources/login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\HybridFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9E3E2-E3B8-428E-B6A8-52EF6EFA9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF447B3A-F44B-43BD-ADA7-934054379060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="2448" windowWidth="17280" windowHeight="8880" xr2:uid="{0A9E8A69-D2FF-49C2-9118-15BF7D1B7FB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A9E8A69-D2FF-49C2-9118-15BF7D1B7FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
